--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/eco_para_Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/eco_para_Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938C0727-4713-4F3F-A1C0-7DC7D03A2E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D300411C-C8F8-4E7E-B209-7DAFA3B57814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{545BFFA9-B4D0-43F2-BA9E-5B341381FFF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{545BFFA9-B4D0-43F2-BA9E-5B341381FFF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,9 +438,13 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.8</v>
       </c>
@@ -454,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -468,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -482,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.04</v>
       </c>
@@ -496,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>27.73</v>
       </c>
@@ -510,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9405.3799999999992</v>
       </c>
@@ -518,12 +522,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>7</v>
       </c>
